--- a/biology/Zoologie/Heliophora_orbiculus/Heliophora_orbiculus.xlsx
+++ b/biology/Zoologie/Heliophora_orbiculus/Heliophora_orbiculus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliophora orbiculus est une espèce d'oursins clypéastéroïdes de la famille des Rotulidae. Sa coquille est aplatie, circulaire et ornée d’une étoile. C'est la seule espèce actuelle du genre Heliophora, qui remonte au Pliocène supérieur[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliophora orbiculus est une espèce d'oursins clypéastéroïdes de la famille des Rotulidae. Sa coquille est aplatie, circulaire et ornée d’une étoile. C'est la seule espèce actuelle du genre Heliophora, qui remonte au Pliocène supérieur.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Heliophora orbiculus a été initialement décrite en 1788 par le naturaliste suédois Carl von Linné (1707-1778) sous le protonyme d’Echinus orbiculus[1].
-En 1840, le zoologiste suisse naturalisé américain Louis Agassiz (1807-1873) la classe sous le genre Heliophora[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Heliophora orbiculus a été initialement décrite en 1788 par le naturaliste suédois Carl von Linné (1707-1778) sous le protonyme d’Echinus orbiculus.
+En 1840, le zoologiste suisse naturalisé américain Louis Agassiz (1807-1873) la classe sous le genre Heliophora.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Vivant, son corps est recouvert de fines et courtes épines mobiles, comme un duvet, qui lui donnent une couleur gris pourpre et lui permettent de s’enfouir dans le sable.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve cette espèce le long de la côte ouest de l'Afrique. 
 </t>
@@ -605,9 +623,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (30 septembre 2018)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (30 septembre 2018) :
 sous-espèce † Heliophora orbiculus angolensis Goncalves &amp; Roman, 1963</t>
         </is>
       </c>
